--- a/开曼配电室V1.0.0需求说明书.xlsx
+++ b/开曼配电室V1.0.0需求说明书.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\lishi_kmpdc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5EF9AB-9365-42D7-AD54-85D50D46986E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94649523-D310-4EC3-B71A-1D51155E1B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="1110" windowWidth="21600" windowHeight="12375" tabRatio="821" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9075" yWindow="1560" windowWidth="24060" windowHeight="14265" tabRatio="821" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本信息" sheetId="11" r:id="rId1"/>
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="514">
   <si>
     <t>产品基本信息</t>
   </si>
@@ -2604,13 +2604,6 @@
     <t>实时预览</t>
   </si>
   <si>
-    <t>【功能描述】
-1.值班工作站负责对辖区内配电房的实时预览。
-2.常态运行时，不进行实时视频上送，本地视频存储，通过录像进行20天的数据保存，具备红外夜视功能。
-3.当用户对开关进行遥控、挂牌操作时，视频摄像机自动转向被操作的开关，可视频监视开关动作情况。
-4.系统能够灵活方便的配置视频摄像终端通信通道，包括远端设备 IP 地址、用户名、密码、通道帧率、通道码流、视频分辨率；可预先监视方案。</t>
-  </si>
-  <si>
     <t>客户需求</t>
   </si>
   <si>
@@ -2668,9 +2661,6 @@
     <t>实时码流存储</t>
   </si>
   <si>
-    <t>1.常态运行时，不进行实时视频上送，本地视频存储，通过录像进行20天的数据保存。</t>
-  </si>
-  <si>
     <t>sd卡容量？ 是否循环存储？</t>
   </si>
   <si>
@@ -2680,9 +2670,6 @@
     <t>视频参数设置</t>
   </si>
   <si>
-    <t>1.可以灵活配置视频的参数，包括远端设备 IP 地址、用户名、密码、通道帧率、通道码流、视频分辨率。</t>
-  </si>
-  <si>
     <t>DR-004</t>
   </si>
   <si>
@@ -2696,10 +2683,6 @@
   </si>
   <si>
     <t>录像回放</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【功能描述】
-支持远程回放按照时间检索的历史视频、告警录像和计划存储的本地录像， 回放支持单帧、慢放、常速、快速、进度条拖放等方式，回放时支持画面放 大、缩小、局部放大等操作，支持显示效果的调节，包括画面亮度、对比度、 饱和度、色调等； </t>
   </si>
   <si>
     <t>DR-005</t>
@@ -3158,10 +3141,6 @@
   </si>
   <si>
     <t>权限管理</t>
-  </si>
-  <si>
-    <t>【功能描述】
-支持用户权限管理提供优先级划分，高优先级用户可以在低优先级用户使用 时获取控制权，低优先级用户不能再使用，同级别的用户满足先到先得的原则获得控制权，高优先级用户对视频图像的操作信息（屏蔽、抢占、锁定等操作）以及释放这些操作时能对低优先级用户给出提示；</t>
   </si>
   <si>
     <t>DR-037</t>
@@ -3302,37 +3281,6 @@
   </si>
   <si>
     <t>处理意见</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1.设置巡检路线，添加需要巡检的摄像头。
-2.选择手动巡检，可以按照巡检路线逐个进行查看，选择自动巡检，设置巡检时间，会自动机进行巡检，分析，一旦发现问题可截图并标注问题。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3.自动巡检，可设定轮巡时间间隔（2秒~10秒）进行定时滚动切换，参与轮巡的对象可以任意设定，包括不同的摄像机、同一摄像机的不同预置位等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4.具备视频自动复位功能，即可对监控点的摄像机设定默认监视状态，正常状态下摄像机保持默认状态，在控制完成的可设定的时间段内恢复默认监视状态。</t>
-    </r>
-    <phoneticPr fontId="38" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3680,6 +3628,104 @@
   </si>
   <si>
     <t>数据已经上传，不需要去现场扫APP,自检检验的什么？</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>【功能描述】
+1.支持用户权限管理提供优先级划分，高优先级用户可以在低优先级用户使用 时获取控制权，低优先级用户不能再使用，同级别的用户满足先到先得的原则获得控制权，高优先级用户对视频图像的操作信息（屏蔽、抢占、锁定等操作）以及释放2.这些操作时能对低优先级用户给出提示；
+监控系统具有权限管理功能，可以针对不同的用户角色赋予不同的权限，保证系统使用的安全性。
+3.权限管理功能中，有很多系统默认的权限点；权限组是由多个权限点组合而成；新建用户后，指定该用户属于某个权限组，那么他就具有该权限组的所有权限；并可指定该用户的权限时段，可设置为永久有效、每天时间段有效和某个时间段有效。
+4.权限点包括设备、策略、页面、系统、配置、登陆WEB几大部分的相关功能。</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限优先级</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限管理</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.权限点包括设备、策略、页面、系统、配置、登陆WEB几大部分的相关功能。功能权限点组合成权限组。
+2.可以指定用户的权限时段，精确到秒，可设置为永久有效、每天时间段有效和某个时间段有效。
+</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.设置巡检路线，添加需要巡检的摄像头。
+2.选择手动巡检，可以按照巡检路线逐个进行查看。
+3.选择自动巡检，设置巡检时间，会自动机进行巡检，分析，一旦发现问题可截图并标注问题。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.自动巡检，可设定轮巡时间间隔（2秒~10秒）进行定时滚动切换，参与轮巡的对象可以任意设定，包括不同的摄像机、同一摄像机的不同预置位等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4.具备视频自动复位功能，即可对监控点的摄像机设定默认监视状态，正常状态下摄像机保持默认状态，在控制完成的可设定的时间段内恢复默认监视状态。</t>
+    </r>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动巡检怎么进行分析，和问题发现？</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.可以灵活配置视频的参数，包括远端设备 IP 地址、用户名、密码、通道帧率、通道码流、视频分辨率。</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【功能描述】
+支持远程回放按照时间检索的历史视频、告警录像和计划存储的本地录像， 回放支持单帧、慢放、常速、快速、进度条拖放等方式，回放时支持画面放 大、缩小、局部放大等操作，支持显示效果的调节，包括画面亮度、对比度、 饱和度、色调等； </t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>【功能描述】
+1.值班工作站负责对辖区内配电房的实时预览。
+2.常态运行时，不进行实时视频上送，本地视频存储，通过录像进行20天的数据保存，具备红外夜视功能。
+3.当用户对开关进行遥控、挂牌操作时，视频摄像机自动转向被操作的开关，可视频监视开关动作情况。
+4.系统能够灵活方便的配置视频摄像终端通信通道，包括远端设备 IP 地址、用户名、密码、通道帧率、通道码流、视频分辨率；可预先监视方案。
+5.每个配电室配置1~2个智能摄像头，实现20天，每天24小时的1080P录像。</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.常态运行时，不进行实时视频上送，本地视频存储，通过录像进行20天的数据保存。
+2.视频分辨率为1080P。</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.摄像头当有运动物体通过配电站房大门进入配电房时，会进行猪排，上传系统，系统能根据报警联动进行显示。</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.200万像素以上网络数字高速高清球机（含安装支架）。
+2.红外夜视距离：可识别距样机50m处的人体轮廓。
+3.支持≥20倍光学变焦，焦距范围4.7-94mm。
+4.支持OSD设置功能，8行信息叠加显示。
+5.支持3D控制功能； 
+6.支持宽动态功能；
+7.支持守望功能，当球机待机时间达到设置值时，可自动运行调预置位、自动巡航、自动扫描、模式路径等功能。
+8.支持H.265、H.264视频编码标准；
+9.支持区域入侵侦测、移动侦测、视频遮挡侦测功能。
+10.支持配置文件导入导出具备较好的环境适应性，工作温度范围可达-30℃-60℃。</t>
     <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
@@ -4363,7 +4409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4797,6 +4843,30 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -5722,7 +5792,7 @@
       <xdr:col>66</xdr:col>
       <xdr:colOff>67076</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>579250</xdr:rowOff>
+      <xdr:rowOff>341125</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5771,8 +5841,8 @@
     <xdr:to>
       <xdr:col>81</xdr:col>
       <xdr:colOff>390766</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1079</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>429704</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5803,6 +5873,55 @@
         <a:xfrm>
           <a:off x="58012965" y="542925"/>
           <a:ext cx="10092055" cy="4709160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>503986</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>447207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A63AD28-C815-40CE-9311-0FE6262BF0B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10972800" y="190500"/>
+          <a:ext cx="6714286" cy="3742857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6104,7 +6223,7 @@
   <dimension ref="A1:Z114"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -11555,11 +11674,11 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:AF54"/>
+  <dimension ref="A1:AF55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11576,7 +11695,7 @@
     <col min="11" max="11" width="9" style="20"/>
     <col min="12" max="12" width="12.875" style="20" customWidth="1"/>
     <col min="13" max="13" width="28.5" style="20" customWidth="1"/>
-    <col min="14" max="14" width="9" style="20"/>
+    <col min="14" max="14" width="15" style="20" customWidth="1"/>
     <col min="15" max="15" width="32.5" style="20" customWidth="1"/>
     <col min="16" max="16" width="11.5" style="20" customWidth="1"/>
     <col min="17" max="19" width="9" style="20"/>
@@ -11689,14 +11808,14 @@
       <c r="D2" s="133" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="140" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="133" t="s">
+      <c r="G2" s="134" t="s">
         <v>259</v>
-      </c>
-      <c r="G2" s="134" t="s">
-        <v>260</v>
       </c>
       <c r="H2" s="133" t="s">
         <v>48</v>
@@ -11705,22 +11824,22 @@
         <v>48</v>
       </c>
       <c r="J2" s="133" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K2" s="133" t="s">
         <v>46</v>
       </c>
       <c r="L2" s="133" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M2" s="140" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="N2" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="133" t="s">
-        <v>48</v>
+      <c r="O2" s="140" t="s">
+        <v>513</v>
       </c>
       <c r="P2" s="134" t="s">
         <v>48</v>
@@ -11732,13 +11851,13 @@
         <v>48</v>
       </c>
       <c r="S2" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="T2" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="U2" s="17" t="s">
         <v>264</v>
-      </c>
-      <c r="U2" s="17" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:32" s="17" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.15">
@@ -11761,13 +11880,13 @@
       <c r="Q3" s="133"/>
       <c r="R3" s="133"/>
       <c r="S3" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="T3" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="T3" s="17" t="s">
-        <v>267</v>
-      </c>
       <c r="U3" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:32" s="17" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -11790,13 +11909,13 @@
       <c r="Q4" s="133"/>
       <c r="R4" s="133"/>
       <c r="S4" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="T4" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="T4" s="17" t="s">
-        <v>269</v>
-      </c>
       <c r="U4" s="17" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:32" s="17" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11819,13 +11938,13 @@
       <c r="Q5" s="133"/>
       <c r="R5" s="133"/>
       <c r="S5" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="T5" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="T5" s="17" t="s">
+      <c r="U5" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="U5" s="17" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:32" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -11848,16 +11967,16 @@
       <c r="Q6" s="133"/>
       <c r="R6" s="133"/>
       <c r="S6" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="T6" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="T6" s="17" t="s">
+      <c r="U6" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="U6" s="17" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" s="17" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:32" s="17" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="133"/>
       <c r="B7" s="133"/>
       <c r="C7" s="133"/>
@@ -11868,22 +11987,22 @@
       <c r="H7" s="133"/>
       <c r="I7" s="134"/>
       <c r="J7" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+      <c r="M7" s="139" t="s">
+        <v>511</v>
       </c>
       <c r="N7" s="17" t="s">
         <v>48</v>
       </c>
       <c r="O7" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="P7" s="18"/>
     </row>
@@ -11898,16 +12017,16 @@
       <c r="H8" s="133"/>
       <c r="I8" s="134"/>
       <c r="J8" s="17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L8" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
+      </c>
+      <c r="M8" s="139" t="s">
+        <v>508</v>
       </c>
       <c r="P8" s="18"/>
     </row>
@@ -11922,16 +12041,16 @@
       <c r="H9" s="133"/>
       <c r="I9" s="134"/>
       <c r="J9" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>48</v>
@@ -11942,7 +12061,7 @@
     </row>
     <row r="10" spans="1:32" s="17" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="133" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B10" s="133" t="s">
         <v>256</v>
@@ -11951,13 +12070,13 @@
         <v>46</v>
       </c>
       <c r="D10" s="133" t="s">
-        <v>287</v>
-      </c>
-      <c r="E10" s="134" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="E10" s="140" t="s">
+        <v>509</v>
       </c>
       <c r="F10" s="133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G10" s="134" t="s">
         <v>48</v>
@@ -11969,19 +12088,19 @@
         <v>48</v>
       </c>
       <c r="J10" s="17" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="L10" s="17" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M10" s="139" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>48</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:32" s="17" customFormat="1" ht="107.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -11995,13 +12114,13 @@
       <c r="H11" s="133"/>
       <c r="I11" s="134"/>
       <c r="J11" s="17" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:32" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -12015,18 +12134,18 @@
       <c r="H12" s="133"/>
       <c r="I12" s="134"/>
       <c r="J12" s="17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="13" spans="1:32" s="17" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="134" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B13" s="134" t="s">
         <v>256</v>
@@ -12035,13 +12154,13 @@
         <v>46</v>
       </c>
       <c r="D13" s="140" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E13" s="134" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F13" s="133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G13" s="134" t="s">
         <v>48</v>
@@ -12053,13 +12172,13 @@
         <v>48</v>
       </c>
       <c r="J13" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:32" s="18" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12073,11 +12192,14 @@
       <c r="H14" s="133"/>
       <c r="I14" s="134"/>
       <c r="J14" s="17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="18" t="s">
-        <v>303</v>
+        <v>299</v>
+      </c>
+      <c r="M14" s="139" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:32" s="18" customFormat="1" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12091,11 +12213,11 @@
       <c r="H15" s="133"/>
       <c r="I15" s="134"/>
       <c r="J15" s="17" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K15" s="17"/>
       <c r="L15" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:32" s="18" customFormat="1" ht="57.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12109,11 +12231,11 @@
       <c r="H16" s="133"/>
       <c r="I16" s="134"/>
       <c r="J16" s="17" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="K16" s="17"/>
       <c r="L16" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="18" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.15">
@@ -12127,11 +12249,11 @@
       <c r="H17" s="133"/>
       <c r="I17" s="134"/>
       <c r="J17" s="17" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K17" s="17"/>
       <c r="L17" s="18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="18" customFormat="1" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12145,11 +12267,11 @@
       <c r="H18" s="133"/>
       <c r="I18" s="134"/>
       <c r="J18" s="17" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K18" s="17"/>
       <c r="L18" s="18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="18" customFormat="1" ht="44.1" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12163,16 +12285,16 @@
       <c r="H19" s="133"/>
       <c r="I19" s="134"/>
       <c r="J19" s="17" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K19" s="17"/>
       <c r="L19" s="18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="18" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="134" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B20" s="134" t="s">
         <v>155</v>
@@ -12184,10 +12306,10 @@
         <v>155</v>
       </c>
       <c r="E20" s="140" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F20" s="134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G20" s="134" t="s">
         <v>48</v>
@@ -12199,14 +12321,14 @@
         <v>48</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K20" s="17"/>
       <c r="L20" s="18" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="18" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12220,14 +12342,14 @@
       <c r="H21" s="134"/>
       <c r="I21" s="134"/>
       <c r="J21" s="17" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K21" s="17"/>
       <c r="L21" s="18" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="18" customFormat="1" ht="44.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12241,11 +12363,11 @@
       <c r="H22" s="134"/>
       <c r="I22" s="134"/>
       <c r="J22" s="17" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="K22" s="17"/>
       <c r="L22" s="28" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="18" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.15">
@@ -12259,34 +12381,34 @@
       <c r="H23" s="134"/>
       <c r="I23" s="134"/>
       <c r="J23" s="17" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K23" s="17"/>
       <c r="L23" s="18" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="18" customFormat="1" ht="224.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="134" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B24" s="134" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C24" s="134" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="135" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E24" s="134" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F24" s="134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G24" s="134" t="s">
         <v>48</v>
@@ -12298,16 +12420,16 @@
         <v>48</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="M24" s="27" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="18" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -12321,16 +12443,16 @@
       <c r="H25" s="134"/>
       <c r="I25" s="134"/>
       <c r="J25" s="17" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="18" customFormat="1" ht="131.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12344,19 +12466,19 @@
       <c r="H26" s="134"/>
       <c r="I26" s="134"/>
       <c r="J26" s="17" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="18" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -12370,16 +12492,16 @@
       <c r="H27" s="134"/>
       <c r="I27" s="134"/>
       <c r="J27" s="17" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="18" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.15">
@@ -12393,19 +12515,19 @@
       <c r="H28" s="134"/>
       <c r="I28" s="134"/>
       <c r="J28" s="17" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="18" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.15">
@@ -12419,39 +12541,39 @@
       <c r="H29" s="134"/>
       <c r="I29" s="134"/>
       <c r="J29" s="17" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="18" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="134" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B30" s="134" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C30" s="133" t="s">
         <v>46</v>
       </c>
       <c r="D30" s="135" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E30" s="136" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F30" s="134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G30" s="134" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H30" s="137" t="s">
         <v>48</v>
@@ -12460,19 +12582,19 @@
         <v>48</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K30" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="18" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.15">
@@ -12486,36 +12608,36 @@
       <c r="H31" s="137"/>
       <c r="I31" s="137"/>
       <c r="J31" s="17" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K31" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="18" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="134" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B32" s="134" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C32" s="133" t="s">
         <v>46</v>
       </c>
       <c r="D32" s="134" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E32" s="134" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F32" s="134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G32" s="134" t="s">
         <v>48</v>
@@ -12527,19 +12649,19 @@
         <v>48</v>
       </c>
       <c r="J32" s="17" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K32" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="18" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -12553,13 +12675,13 @@
       <c r="H33" s="134"/>
       <c r="I33" s="134"/>
       <c r="J33" s="17" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K33" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="18" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12573,19 +12695,19 @@
       <c r="H34" s="134"/>
       <c r="I34" s="134"/>
       <c r="J34" s="17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K34" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="18" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.15">
@@ -12599,36 +12721,36 @@
       <c r="H35" s="134"/>
       <c r="I35" s="134"/>
       <c r="J35" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K35" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="18" customFormat="1" ht="134.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G36" s="18" t="s">
         <v>48</v>
@@ -12640,42 +12762,42 @@
         <v>48</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="K36" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L36" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="M36" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="O36" s="18" t="s">
         <v>375</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="O36" s="18" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="18" customFormat="1" ht="134.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="134" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B37" s="134" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C37" s="133" t="s">
         <v>46</v>
       </c>
       <c r="D37" s="134" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E37" s="134" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F37" s="134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G37" s="134" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H37" s="137" t="s">
         <v>48</v>
@@ -12684,19 +12806,19 @@
         <v>48</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K37" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L37" s="28" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="18" customFormat="1" ht="134.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12710,16 +12832,16 @@
       <c r="H38" s="137"/>
       <c r="I38" s="137"/>
       <c r="J38" s="17" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K38" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="18" customFormat="1" ht="236.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12733,36 +12855,36 @@
       <c r="H39" s="137"/>
       <c r="I39" s="137"/>
       <c r="J39" s="17" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K39" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="18" customFormat="1" ht="217.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="18" customFormat="1" ht="246.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="134" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B40" s="134" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C40" s="133" t="s">
         <v>46</v>
       </c>
       <c r="D40" s="134" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E40" s="134" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F40" s="133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G40" s="134" t="s">
         <v>48</v>
@@ -12774,16 +12896,19 @@
         <v>48</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K40" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M40" s="139" t="s">
-        <v>450</v>
+        <v>506</v>
+      </c>
+      <c r="O40" s="139" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="18" customFormat="1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -12797,16 +12922,16 @@
       <c r="H41" s="134"/>
       <c r="I41" s="137"/>
       <c r="J41" s="17" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K41" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="18" customFormat="1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
@@ -12820,121 +12945,99 @@
       <c r="H42" s="134"/>
       <c r="I42" s="137"/>
       <c r="J42" s="17" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K42" s="17" t="s">
         <v>46</v>
       </c>
       <c r="L42" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="151" customFormat="1" ht="129.94999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="145" t="s">
+        <v>401</v>
+      </c>
+      <c r="B43" s="145" t="s">
+        <v>402</v>
+      </c>
+      <c r="C43" s="145" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43" s="146" t="s">
+        <v>402</v>
+      </c>
+      <c r="E43" s="147" t="s">
+        <v>502</v>
+      </c>
+      <c r="F43" s="148" t="s">
+        <v>258</v>
+      </c>
+      <c r="G43" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="I43" s="145" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="150" t="s">
+        <v>504</v>
+      </c>
+      <c r="M43" s="150" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="149" customFormat="1" ht="184.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="145"/>
+      <c r="B44" s="145"/>
+      <c r="C44" s="145"/>
+      <c r="D44" s="146"/>
+      <c r="E44" s="147"/>
+      <c r="F44" s="148"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="145"/>
+      <c r="I44" s="145"/>
+      <c r="J44" s="149" t="s">
         <v>403</v>
       </c>
-      <c r="M42" s="18" t="s">
+      <c r="K44" s="149" t="s">
+        <v>46</v>
+      </c>
+      <c r="L44" s="152" t="s">
+        <v>503</v>
+      </c>
+      <c r="M44" s="151" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="19" customFormat="1" ht="114" x14ac:dyDescent="0.15">
-      <c r="A43" s="19" t="s">
+    <row r="45" spans="1:15" s="19" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="C43" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L43" s="19" t="s">
-        <v>406</v>
-      </c>
-      <c r="M43" s="25" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="19" customFormat="1" ht="120.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="B44" s="19" t="s">
+      <c r="B45" s="19" t="s">
         <v>256</v>
-      </c>
-      <c r="C44" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="F44" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>413</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I44" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="J44" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="L44" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="M44" s="25" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="19" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>417</v>
       </c>
       <c r="C45" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="E45" s="141" t="s">
-        <v>452</v>
+        <v>406</v>
+      </c>
+      <c r="E45" s="23" t="s">
+        <v>407</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>419</v>
+        <v>258</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>408</v>
       </c>
       <c r="H45" s="19" t="s">
         <v>48</v>
@@ -12943,33 +13046,39 @@
         <v>48</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="K45" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="L45" s="19" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="19" customFormat="1" ht="81" x14ac:dyDescent="0.15">
+      <c r="L45" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="M45" s="25" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="19" customFormat="1" ht="228" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="19" t="s">
-        <v>423</v>
-      </c>
-      <c r="E46" s="25" t="s">
-        <v>424</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>48</v>
+      <c r="D46" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="E46" s="141" t="s">
+        <v>446</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>414</v>
       </c>
       <c r="H46" s="19" t="s">
         <v>48</v>
@@ -12978,33 +13087,30 @@
         <v>48</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K46" s="19" t="s">
         <v>46</v>
       </c>
       <c r="L46" s="19" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="19" customFormat="1" ht="189" x14ac:dyDescent="0.15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="19" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A47" s="19" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C47" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E47" s="25" t="s">
-        <v>429</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>48</v>
@@ -13016,115 +13122,162 @@
         <v>48</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="K47" s="19" t="s">
         <v>46</v>
       </c>
       <c r="L47" s="19" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="19" customFormat="1" ht="189" x14ac:dyDescent="0.15">
+      <c r="A48" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>424</v>
+      </c>
+      <c r="F48" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="K48" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L48" s="19" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E49" s="25"/>
+    </row>
+    <row r="50" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="18" t="s">
+        <v>411</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C50" s="17"/>
+      <c r="D50" s="22" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="19" t="s">
-        <v>410</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>432</v>
-      </c>
-      <c r="E48" s="25"/>
-    </row>
-    <row r="49" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="18" t="s">
-        <v>416</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="F49" s="19" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>417</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>434</v>
-      </c>
       <c r="F50" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D51" s="22" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="19" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="F52" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="19" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="19" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="F55" s="19" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="92">
+  <mergeCells count="101">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
     <mergeCell ref="R2:R6"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="M2:M6"/>
     <mergeCell ref="N2:N6"/>
     <mergeCell ref="O2:O6"/>
@@ -13245,7 +13398,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13259,29 +13412,29 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="I1" s="14" t="s">
         <v>444</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
@@ -13576,7 +13729,7 @@
   <dimension ref="A3:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13605,9 +13758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13623,294 +13776,295 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="142" t="s">
+        <v>452</v>
+      </c>
+      <c r="B1" s="142" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="142" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="142" t="s">
-        <v>457</v>
-      </c>
-      <c r="C1" s="142" t="s">
-        <v>464</v>
-      </c>
       <c r="D1" s="142" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E1" s="142" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F1" s="142" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="143" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B2" s="144" t="s">
+        <v>456</v>
+      </c>
+      <c r="C2" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="D2" s="144" t="s">
         <v>462</v>
-      </c>
-      <c r="C2" s="144" t="s">
-        <v>467</v>
-      </c>
-      <c r="D2" s="144" t="s">
-        <v>468</v>
       </c>
       <c r="E2" s="144"/>
     </row>
     <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="143" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B3" s="144" t="s">
+        <v>457</v>
+      </c>
+      <c r="C3" s="144" t="s">
+        <v>460</v>
+      </c>
+      <c r="D3" s="144" t="s">
         <v>463</v>
-      </c>
-      <c r="C3" s="144" t="s">
-        <v>466</v>
-      </c>
-      <c r="D3" s="144" t="s">
-        <v>469</v>
       </c>
       <c r="E3" s="144"/>
     </row>
     <row r="4" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="143" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B4" s="144" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="144" t="s">
         <v>461</v>
       </c>
-      <c r="C4" s="144" t="s">
-        <v>467</v>
-      </c>
       <c r="D4" s="144" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E4" s="144"/>
     </row>
     <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="143" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B5" s="144" t="s">
+        <v>454</v>
+      </c>
+      <c r="C5" s="144" t="s">
         <v>460</v>
       </c>
-      <c r="C5" s="144" t="s">
-        <v>466</v>
-      </c>
       <c r="D5" s="144" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E5" s="144"/>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="143" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B6" s="144" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C6" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D6" s="144" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="143" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B7" s="144" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C7" s="144" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D7" s="144" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="143" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B8" s="144" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C8" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D8" s="144" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="143" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B9" s="144" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="C9" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D9" s="144" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="143" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B10" s="144" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C10" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D10" s="144" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A11" s="143" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B11" s="144" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C11" s="144" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D11" s="144" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="143" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B12" s="144" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="C12" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D12" s="144" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="143" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B13" s="144" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="C13" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D13" s="144" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="143" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B14" s="144" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C14" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D14" s="144" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A15" s="143" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B15" s="144" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C15" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D15" s="144" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="143" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="144" t="s">
+        <v>492</v>
+      </c>
+      <c r="C16" s="144" t="s">
+        <v>460</v>
+      </c>
+      <c r="D16" s="144" t="s">
         <v>493</v>
-      </c>
-      <c r="B16" s="144" t="s">
-        <v>498</v>
-      </c>
-      <c r="C16" s="144" t="s">
-        <v>466</v>
-      </c>
-      <c r="D16" s="144" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A17" s="143" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B17" s="144" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C17" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D17" s="144" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="A18" s="143" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C18" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D18" s="144" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="81" x14ac:dyDescent="0.15">
       <c r="A19" s="143" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B19" s="144" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C19" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D19" s="144" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A20" s="143" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B20" s="144" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C20" s="144" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="D20" s="144" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>